--- a/venv/TotalTimingFileListTemplate.xlsx
+++ b/venv/TotalTimingFileListTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasmckamey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasmckamey/PycharmProjects/TimingFileCompilingFactorial/venv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AFE3C-D9C6-F449-9542-67D7315AA4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF69DB-3510-F64C-9922-F125684D7A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{53377DC2-8D10-7146-AAA9-24CD156A36E1}"/>
   </bookViews>
@@ -50,16 +50,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,22 +110,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,135 +441,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C92002-BAC3-8644-82A1-3923346D5D14}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="61.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
